--- a/tietokanta/class_progression/class_progression_Bard.xlsx
+++ b/tietokanta/class_progression/class_progression_Bard.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505D04DF-A3CB-416B-9D61-AC061A6AA5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94CACD-D238-40CB-9B2B-89F4ACCD4188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="3195" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -447,7 +455,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tietokanta/class_progression/class_progression_Bard.xlsx
+++ b/tietokanta/class_progression/class_progression_Bard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94CACD-D238-40CB-9B2B-89F4ACCD4188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C0CB3-6D94-4B08-8D50-D5ACEA9D66CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3195" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="2070" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>

--- a/tietokanta/class_progression/class_progression_Bard.xlsx
+++ b/tietokanta/class_progression/class_progression_Bard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C0CB3-6D94-4B08-8D50-D5ACEA9D66CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F8BD3-A68C-4846-B96A-0A793F7FC408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="2070" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
